--- a/P4/Data entries/output.xlsx
+++ b/P4/Data entries/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viveksharma/Documents/Northeastern/Study/DMDD/Assignments/DMDDGroupProject-6/P4/Data entries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A0694D-BE15-B84B-BED9-926557E37C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64971AB-68A9-7A44-BDC1-CC69EC4456C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11140,7 +11140,7 @@
   <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28452,7 +28452,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
